--- a/artfynd/A 13696-2023.xlsx
+++ b/artfynd/A 13696-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111609173</v>
+        <v>111609176</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514934.1293421969</v>
+        <v>514875.4249116365</v>
       </c>
       <c r="R2" t="n">
-        <v>6925308.234934391</v>
+        <v>6924962.732657854</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111609176</v>
+        <v>111609170</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -958,7 +958,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514875.4249116365</v>
+        <v>515035.9338400747</v>
       </c>
       <c r="R4" t="n">
-        <v>6924962.732657854</v>
+        <v>6925238.814452391</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111609172</v>
+        <v>111609169</v>
       </c>
       <c r="B6" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1178,38 +1178,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>514955.9350709137</v>
+        <v>515078.8479096842</v>
       </c>
       <c r="R6" t="n">
-        <v>6925302.779521272</v>
+        <v>6925177.45879681</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1266,11 +1270,6 @@
       <c r="AI6" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1288,10 +1287,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111609168</v>
+        <v>111609172</v>
       </c>
       <c r="B7" t="n">
-        <v>77597</v>
+        <v>77268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1304,21 +1303,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>864</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1328,10 +1327,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515085.0087401169</v>
+        <v>514955.9350709137</v>
       </c>
       <c r="R7" t="n">
-        <v>6925147.4056778</v>
+        <v>6925302.779521272</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1392,7 +1391,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1410,10 +1409,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111609170</v>
+        <v>111609168</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>77597</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1422,42 +1421,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>864</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>515035.9338400747</v>
+        <v>515085.0087401169</v>
       </c>
       <c r="R8" t="n">
-        <v>6925238.814452391</v>
+        <v>6925147.4056778</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1514,6 +1509,11 @@
       <c r="AI8" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111609169</v>
+        <v>111609173</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1697,10 +1697,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>515078.8479096842</v>
+        <v>514934.1293421969</v>
       </c>
       <c r="R10" t="n">
-        <v>6925177.45879681</v>
+        <v>6925308.234934391</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>

--- a/artfynd/A 13696-2023.xlsx
+++ b/artfynd/A 13696-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111609176</v>
+        <v>111609169</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514875.4249116365</v>
+        <v>515078.8479096842</v>
       </c>
       <c r="R2" t="n">
-        <v>6924962.732657854</v>
+        <v>6925177.45879681</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111609174</v>
+        <v>111609167</v>
       </c>
       <c r="B3" t="n">
-        <v>90854</v>
+        <v>77186</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2079</v>
+        <v>353</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514788.8674634451</v>
+        <v>515051.1877758073</v>
       </c>
       <c r="R3" t="n">
-        <v>6925250.666874606</v>
+        <v>6925144.938876954</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>mossig silverlåga av tall</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -923,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111609170</v>
+        <v>111609174</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>90854</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -935,42 +935,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>2079</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>515035.9338400747</v>
+        <v>514788.8674634451</v>
       </c>
       <c r="R4" t="n">
-        <v>6925238.814452391</v>
+        <v>6925250.666874606</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1027,6 +1023,11 @@
       <c r="AI4" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>mossig silverlåga av tall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1044,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111609175</v>
+        <v>111609173</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,38 +1057,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>514769.8196280882</v>
+        <v>514934.1293421969</v>
       </c>
       <c r="R5" t="n">
-        <v>6925156.6384242</v>
+        <v>6925308.234934391</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,11 +1149,6 @@
       <c r="AI5" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111609169</v>
+        <v>111609175</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1178,42 +1178,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515078.8479096842</v>
+        <v>514769.8196280882</v>
       </c>
       <c r="R6" t="n">
-        <v>6925177.45879681</v>
+        <v>6925156.6384242</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1270,6 +1266,11 @@
       <c r="AI6" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1287,10 +1288,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111609172</v>
+        <v>111609170</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1299,38 +1300,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>514955.9350709137</v>
+        <v>515035.9338400747</v>
       </c>
       <c r="R7" t="n">
-        <v>6925302.779521272</v>
+        <v>6925238.814452391</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1387,11 +1392,6 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111609167</v>
+        <v>111609176</v>
       </c>
       <c r="B9" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,38 +1543,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>515051.1877758073</v>
+        <v>514875.4249116365</v>
       </c>
       <c r="R9" t="n">
-        <v>6925144.938876954</v>
+        <v>6924962.732657854</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1631,11 +1635,6 @@
       <c r="AI9" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1653,10 +1652,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111609173</v>
+        <v>111609172</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1665,42 +1664,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>514934.1293421969</v>
+        <v>514955.9350709137</v>
       </c>
       <c r="R10" t="n">
-        <v>6925308.234934391</v>
+        <v>6925302.779521272</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1757,6 +1752,11 @@
       <c r="AI10" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>

--- a/artfynd/A 13696-2023.xlsx
+++ b/artfynd/A 13696-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111609169</v>
+        <v>111609167</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>515078.8479096842</v>
+        <v>515051.1877758073</v>
       </c>
       <c r="R2" t="n">
-        <v>6925177.45879681</v>
+        <v>6925144.938876954</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,6 +780,11 @@
       <c r="AI2" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -801,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111609167</v>
+        <v>111609174</v>
       </c>
       <c r="B3" t="n">
-        <v>77186</v>
+        <v>90854</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>353</v>
+        <v>2079</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>515051.1877758073</v>
+        <v>514788.8674634451</v>
       </c>
       <c r="R3" t="n">
-        <v>6925144.938876954</v>
+        <v>6925250.666874606</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -905,7 +906,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>mossig silverlåga av tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -923,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111609174</v>
+        <v>111609172</v>
       </c>
       <c r="B4" t="n">
-        <v>90854</v>
+        <v>77268</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,21 +940,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2079</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -963,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514788.8674634451</v>
+        <v>514955.9350709137</v>
       </c>
       <c r="R4" t="n">
-        <v>6925250.666874606</v>
+        <v>6925302.779521272</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1027,7 +1028,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>mossig silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1045,7 +1046,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111609173</v>
+        <v>111609169</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1080,7 +1081,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1089,10 +1090,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>514934.1293421969</v>
+        <v>515078.8479096842</v>
       </c>
       <c r="R5" t="n">
-        <v>6925308.234934391</v>
+        <v>6925177.45879681</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1166,10 +1167,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111609175</v>
+        <v>111609170</v>
       </c>
       <c r="B6" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1178,38 +1179,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>514769.8196280882</v>
+        <v>515035.9338400747</v>
       </c>
       <c r="R6" t="n">
-        <v>6925156.6384242</v>
+        <v>6925238.814452391</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1266,11 +1271,6 @@
       <c r="AI6" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111609170</v>
+        <v>111609168</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>77597</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1300,42 +1300,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>864</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515035.9338400747</v>
+        <v>515085.0087401169</v>
       </c>
       <c r="R7" t="n">
-        <v>6925238.814452391</v>
+        <v>6925147.4056778</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1392,6 +1388,11 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1409,10 +1410,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111609168</v>
+        <v>111609175</v>
       </c>
       <c r="B8" t="n">
-        <v>77597</v>
+        <v>77268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1425,21 +1426,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>864</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1449,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>515085.0087401169</v>
+        <v>514769.8196280882</v>
       </c>
       <c r="R8" t="n">
-        <v>6925147.4056778</v>
+        <v>6925156.6384242</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1513,7 +1514,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1652,10 +1653,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111609172</v>
+        <v>111609173</v>
       </c>
       <c r="B10" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1664,38 +1665,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>514955.9350709137</v>
+        <v>514934.1293421969</v>
       </c>
       <c r="R10" t="n">
-        <v>6925302.779521272</v>
+        <v>6925308.234934391</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1752,11 +1757,6 @@
       <c r="AI10" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>

--- a/artfynd/A 13696-2023.xlsx
+++ b/artfynd/A 13696-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111609167</v>
+        <v>111609176</v>
       </c>
       <c r="B2" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>515051.1877758073</v>
+        <v>514875.4249116365</v>
       </c>
       <c r="R2" t="n">
-        <v>6925144.938876954</v>
+        <v>6924962.732657854</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -780,11 +784,6 @@
       <c r="AI2" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -924,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111609172</v>
+        <v>111609169</v>
       </c>
       <c r="B4" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,38 +935,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514955.9350709137</v>
+        <v>515078.8479096842</v>
       </c>
       <c r="R4" t="n">
-        <v>6925302.779521272</v>
+        <v>6925177.45879681</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,11 +1027,6 @@
       <c r="AI4" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111609169</v>
+        <v>111609175</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,42 +1056,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>515078.8479096842</v>
+        <v>514769.8196280882</v>
       </c>
       <c r="R5" t="n">
-        <v>6925177.45879681</v>
+        <v>6925156.6384242</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,6 +1144,11 @@
       <c r="AI5" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1167,7 +1166,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111609170</v>
+        <v>111609173</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1202,7 +1201,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1211,10 +1210,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515035.9338400747</v>
+        <v>514934.1293421969</v>
       </c>
       <c r="R6" t="n">
-        <v>6925238.814452391</v>
+        <v>6925308.234934391</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1288,10 +1287,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111609168</v>
+        <v>111609170</v>
       </c>
       <c r="B7" t="n">
-        <v>77597</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1300,38 +1299,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>864</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515085.0087401169</v>
+        <v>515035.9338400747</v>
       </c>
       <c r="R7" t="n">
-        <v>6925147.4056778</v>
+        <v>6925238.814452391</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1388,11 +1391,6 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>tall</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1410,10 +1408,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111609175</v>
+        <v>111609167</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>77186</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1426,21 +1424,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1450,10 +1448,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>514769.8196280882</v>
+        <v>515051.1877758073</v>
       </c>
       <c r="R8" t="n">
-        <v>6925156.6384242</v>
+        <v>6925144.938876954</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1514,7 +1512,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1532,10 +1530,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111609176</v>
+        <v>111609172</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1544,42 +1542,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>514875.4249116365</v>
+        <v>514955.9350709137</v>
       </c>
       <c r="R9" t="n">
-        <v>6924962.732657854</v>
+        <v>6925302.779521272</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1636,6 +1630,11 @@
       <c r="AI9" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1653,10 +1652,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111609173</v>
+        <v>111609168</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>77597</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1665,42 +1664,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>864</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>514934.1293421969</v>
+        <v>515085.0087401169</v>
       </c>
       <c r="R10" t="n">
-        <v>6925308.234934391</v>
+        <v>6925147.4056778</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1757,6 +1752,11 @@
       <c r="AI10" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>

--- a/artfynd/A 13696-2023.xlsx
+++ b/artfynd/A 13696-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111609176</v>
+        <v>111609174</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>90854</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>2079</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514875.4249116365</v>
+        <v>514788.8674634451</v>
       </c>
       <c r="R2" t="n">
-        <v>6924962.732657854</v>
+        <v>6925250.666874606</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,6 +780,11 @@
       <c r="AI2" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>mossig silverlåga av tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -801,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111609174</v>
+        <v>111609176</v>
       </c>
       <c r="B3" t="n">
-        <v>90854</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,38 +814,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2079</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514788.8674634451</v>
+        <v>514875.4249116365</v>
       </c>
       <c r="R3" t="n">
-        <v>6925250.666874606</v>
+        <v>6924962.732657854</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -901,11 +906,6 @@
       <c r="AI3" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>mossig silverlåga av tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>

--- a/artfynd/A 13696-2023.xlsx
+++ b/artfynd/A 13696-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111609174</v>
+        <v>111609167</v>
       </c>
       <c r="B2" t="n">
-        <v>90854</v>
+        <v>77186</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2079</v>
+        <v>353</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514788.8674634451</v>
+        <v>515051.1877758073</v>
       </c>
       <c r="R2" t="n">
-        <v>6925250.666874606</v>
+        <v>6925144.938876954</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>mossig silverlåga av tall</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111609176</v>
+        <v>111609172</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,42 +814,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514875.4249116365</v>
+        <v>514955.9350709137</v>
       </c>
       <c r="R3" t="n">
-        <v>6924962.732657854</v>
+        <v>6925302.779521272</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,6 +902,11 @@
       <c r="AI3" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -923,7 +924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111609169</v>
+        <v>111609176</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -958,7 +959,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -967,10 +968,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>515078.8479096842</v>
+        <v>514875.4249116365</v>
       </c>
       <c r="R4" t="n">
-        <v>6925177.45879681</v>
+        <v>6924962.732657854</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1044,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111609175</v>
+        <v>111609170</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,38 +1057,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>514769.8196280882</v>
+        <v>515035.9338400747</v>
       </c>
       <c r="R5" t="n">
-        <v>6925156.6384242</v>
+        <v>6925238.814452391</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,11 +1149,6 @@
       <c r="AI5" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111609173</v>
+        <v>111609175</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1178,42 +1178,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>514934.1293421969</v>
+        <v>514769.8196280882</v>
       </c>
       <c r="R6" t="n">
-        <v>6925308.234934391</v>
+        <v>6925156.6384242</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1270,6 +1266,11 @@
       <c r="AI6" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1287,10 +1288,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111609170</v>
+        <v>111609174</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>90854</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1299,42 +1300,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>2079</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515035.9338400747</v>
+        <v>514788.8674634451</v>
       </c>
       <c r="R7" t="n">
-        <v>6925238.814452391</v>
+        <v>6925250.666874606</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1391,6 +1388,11 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>mossig silverlåga av tall</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1408,10 +1410,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111609167</v>
+        <v>111609168</v>
       </c>
       <c r="B8" t="n">
-        <v>77186</v>
+        <v>77597</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1424,21 +1426,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>864</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1448,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>515051.1877758073</v>
+        <v>515085.0087401169</v>
       </c>
       <c r="R8" t="n">
-        <v>6925144.938876954</v>
+        <v>6925147.4056778</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1512,7 +1514,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1530,10 +1532,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111609172</v>
+        <v>111609173</v>
       </c>
       <c r="B9" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1542,38 +1544,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>514955.9350709137</v>
+        <v>514934.1293421969</v>
       </c>
       <c r="R9" t="n">
-        <v>6925302.779521272</v>
+        <v>6925308.234934391</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1630,11 +1636,6 @@
       <c r="AI9" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1652,10 +1653,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111609168</v>
+        <v>111609169</v>
       </c>
       <c r="B10" t="n">
-        <v>77597</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1664,38 +1665,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>864</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>515085.0087401169</v>
+        <v>515078.8479096842</v>
       </c>
       <c r="R10" t="n">
-        <v>6925147.4056778</v>
+        <v>6925177.45879681</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1752,11 +1757,6 @@
       <c r="AI10" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>tall</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>

--- a/artfynd/A 13696-2023.xlsx
+++ b/artfynd/A 13696-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111609167</v>
+        <v>111609175</v>
       </c>
       <c r="B2" t="n">
-        <v>77186</v>
+        <v>77268</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>353</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>515051.1877758073</v>
+        <v>514769.8196280882</v>
       </c>
       <c r="R2" t="n">
-        <v>6925144.938876954</v>
+        <v>6925156.6384242</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111609172</v>
+        <v>111609169</v>
       </c>
       <c r="B3" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,38 +814,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514955.9350709137</v>
+        <v>515078.8479096842</v>
       </c>
       <c r="R3" t="n">
-        <v>6925302.779521272</v>
+        <v>6925177.45879681</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,11 +906,6 @@
       <c r="AI3" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1045,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111609170</v>
+        <v>111609168</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>77597</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,42 +1056,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>864</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>515035.9338400747</v>
+        <v>515085.0087401169</v>
       </c>
       <c r="R5" t="n">
-        <v>6925238.814452391</v>
+        <v>6925147.4056778</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1149,6 +1144,11 @@
       <c r="AI5" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111609175</v>
+        <v>111609173</v>
       </c>
       <c r="B6" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1178,38 +1178,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>514769.8196280882</v>
+        <v>514934.1293421969</v>
       </c>
       <c r="R6" t="n">
-        <v>6925156.6384242</v>
+        <v>6925308.234934391</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1266,11 +1270,6 @@
       <c r="AI6" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1410,10 +1409,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111609168</v>
+        <v>111609172</v>
       </c>
       <c r="B8" t="n">
-        <v>77597</v>
+        <v>77268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1426,21 +1425,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>864</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1450,10 +1449,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>515085.0087401169</v>
+        <v>514955.9350709137</v>
       </c>
       <c r="R8" t="n">
-        <v>6925147.4056778</v>
+        <v>6925302.779521272</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1514,7 +1513,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1532,10 +1531,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111609173</v>
+        <v>111609167</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1544,42 +1543,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>514934.1293421969</v>
+        <v>515051.1877758073</v>
       </c>
       <c r="R9" t="n">
-        <v>6925308.234934391</v>
+        <v>6925144.938876954</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1636,6 +1631,11 @@
       <c r="AI9" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111609169</v>
+        <v>111609170</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1697,10 +1697,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>515078.8479096842</v>
+        <v>515035.9338400747</v>
       </c>
       <c r="R10" t="n">
-        <v>6925177.45879681</v>
+        <v>6925238.814452391</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>

--- a/artfynd/A 13696-2023.xlsx
+++ b/artfynd/A 13696-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111609175</v>
+        <v>111609172</v>
       </c>
       <c r="B2" t="n">
         <v>77268</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514769.8196280882</v>
+        <v>514955.9350709137</v>
       </c>
       <c r="R2" t="n">
-        <v>6925156.6384242</v>
+        <v>6925302.779521272</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111609169</v>
+        <v>111609173</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -837,7 +837,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>515078.8479096842</v>
+        <v>514934.1293421969</v>
       </c>
       <c r="R3" t="n">
-        <v>6925177.45879681</v>
+        <v>6925308.234934391</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111609176</v>
+        <v>111609175</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -935,42 +935,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514875.4249116365</v>
+        <v>514769.8196280882</v>
       </c>
       <c r="R4" t="n">
-        <v>6924962.732657854</v>
+        <v>6925156.6384242</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1027,6 +1023,11 @@
       <c r="AI4" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1044,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111609168</v>
+        <v>111609174</v>
       </c>
       <c r="B5" t="n">
-        <v>77597</v>
+        <v>90854</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,21 +1061,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>864</v>
+        <v>2079</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1084,10 +1085,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>515085.0087401169</v>
+        <v>514788.8674634451</v>
       </c>
       <c r="R5" t="n">
-        <v>6925147.4056778</v>
+        <v>6925250.666874606</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,7 +1149,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>mossig silverlåga av tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1166,10 +1167,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111609173</v>
+        <v>111609167</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1178,42 +1179,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>514934.1293421969</v>
+        <v>515051.1877758073</v>
       </c>
       <c r="R6" t="n">
-        <v>6925308.234934391</v>
+        <v>6925144.938876954</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1270,6 +1267,11 @@
       <c r="AI6" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1287,10 +1289,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111609174</v>
+        <v>111609170</v>
       </c>
       <c r="B7" t="n">
-        <v>90854</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1299,38 +1301,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2079</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>514788.8674634451</v>
+        <v>515035.9338400747</v>
       </c>
       <c r="R7" t="n">
-        <v>6925250.666874606</v>
+        <v>6925238.814452391</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1387,11 +1393,6 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>mossig silverlåga av tall</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1409,10 +1410,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111609172</v>
+        <v>111609169</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1421,38 +1422,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>514955.9350709137</v>
+        <v>515078.8479096842</v>
       </c>
       <c r="R8" t="n">
-        <v>6925302.779521272</v>
+        <v>6925177.45879681</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1509,11 +1514,6 @@
       <c r="AI8" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111609167</v>
+        <v>111609176</v>
       </c>
       <c r="B9" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,38 +1543,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>515051.1877758073</v>
+        <v>514875.4249116365</v>
       </c>
       <c r="R9" t="n">
-        <v>6925144.938876954</v>
+        <v>6924962.732657854</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1631,11 +1635,6 @@
       <c r="AI9" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1653,10 +1652,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111609170</v>
+        <v>111609168</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>77597</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1665,42 +1664,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>864</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>515035.9338400747</v>
+        <v>515085.0087401169</v>
       </c>
       <c r="R10" t="n">
-        <v>6925238.814452391</v>
+        <v>6925147.4056778</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1757,6 +1752,11 @@
       <c r="AI10" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>

--- a/artfynd/A 13696-2023.xlsx
+++ b/artfynd/A 13696-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111609172</v>
+        <v>111609174</v>
       </c>
       <c r="B2" t="n">
-        <v>77268</v>
+        <v>90854</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>2079</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514955.9350709137</v>
+        <v>514788.8674634451</v>
       </c>
       <c r="R2" t="n">
-        <v>6925302.779521272</v>
+        <v>6925250.666874606</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>mossig silverlåga av tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111609173</v>
+        <v>111609168</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>77597</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,42 +814,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>864</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514934.1293421969</v>
+        <v>515085.0087401169</v>
       </c>
       <c r="R3" t="n">
-        <v>6925308.234934391</v>
+        <v>6925147.4056778</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,6 +902,11 @@
       <c r="AI3" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -923,7 +924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111609175</v>
+        <v>111609172</v>
       </c>
       <c r="B4" t="n">
         <v>77268</v>
@@ -963,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514769.8196280882</v>
+        <v>514955.9350709137</v>
       </c>
       <c r="R4" t="n">
-        <v>6925156.6384242</v>
+        <v>6925302.779521272</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1045,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111609174</v>
+        <v>111609176</v>
       </c>
       <c r="B5" t="n">
-        <v>90854</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,38 +1058,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2079</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>514788.8674634451</v>
+        <v>514875.4249116365</v>
       </c>
       <c r="R5" t="n">
-        <v>6925250.666874606</v>
+        <v>6924962.732657854</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1145,11 +1150,6 @@
       <c r="AI5" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>mossig silverlåga av tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111609167</v>
+        <v>111609170</v>
       </c>
       <c r="B6" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,38 +1179,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515051.1877758073</v>
+        <v>515035.9338400747</v>
       </c>
       <c r="R6" t="n">
-        <v>6925144.938876954</v>
+        <v>6925238.814452391</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1267,11 +1271,6 @@
       <c r="AI6" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1289,10 +1288,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111609170</v>
+        <v>111609175</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,42 +1300,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515035.9338400747</v>
+        <v>514769.8196280882</v>
       </c>
       <c r="R7" t="n">
-        <v>6925238.814452391</v>
+        <v>6925156.6384242</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1393,6 +1388,11 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111609169</v>
+        <v>111609167</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1422,42 +1422,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>515078.8479096842</v>
+        <v>515051.1877758073</v>
       </c>
       <c r="R8" t="n">
-        <v>6925177.45879681</v>
+        <v>6925144.938876954</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1514,6 +1510,11 @@
       <c r="AI8" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1531,7 +1532,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111609176</v>
+        <v>111609169</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1575,10 +1576,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>514875.4249116365</v>
+        <v>515078.8479096842</v>
       </c>
       <c r="R9" t="n">
-        <v>6924962.732657854</v>
+        <v>6925177.45879681</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1652,10 +1653,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111609168</v>
+        <v>111609173</v>
       </c>
       <c r="B10" t="n">
-        <v>77597</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1664,38 +1665,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>864</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>515085.0087401169</v>
+        <v>514934.1293421969</v>
       </c>
       <c r="R10" t="n">
-        <v>6925147.4056778</v>
+        <v>6925308.234934391</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1752,11 +1757,6 @@
       <c r="AI10" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>tall</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>

--- a/artfynd/A 13696-2023.xlsx
+++ b/artfynd/A 13696-2023.xlsx
@@ -924,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111609172</v>
+        <v>111609176</v>
       </c>
       <c r="B4" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,38 +936,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514955.9350709137</v>
+        <v>514875.4249116365</v>
       </c>
       <c r="R4" t="n">
-        <v>6925302.779521272</v>
+        <v>6924962.732657854</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,11 +1028,6 @@
       <c r="AI4" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111609176</v>
+        <v>111609172</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,42 +1057,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>514875.4249116365</v>
+        <v>514955.9350709137</v>
       </c>
       <c r="R5" t="n">
-        <v>6924962.732657854</v>
+        <v>6925302.779521272</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,6 +1145,11 @@
       <c r="AI5" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>

--- a/artfynd/A 13696-2023.xlsx
+++ b/artfynd/A 13696-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111609174</v>
+        <v>111609167</v>
       </c>
       <c r="B2" t="n">
-        <v>90854</v>
+        <v>77186</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2079</v>
+        <v>353</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514788.8674634451</v>
+        <v>515051.1877758073</v>
       </c>
       <c r="R2" t="n">
-        <v>6925250.666874606</v>
+        <v>6925144.938876954</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>mossig silverlåga av tall</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111609168</v>
+        <v>111609170</v>
       </c>
       <c r="B3" t="n">
-        <v>77597</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,38 +814,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>864</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>515085.0087401169</v>
+        <v>515035.9338400747</v>
       </c>
       <c r="R3" t="n">
-        <v>6925147.4056778</v>
+        <v>6925238.814452391</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,11 +906,6 @@
       <c r="AI3" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -924,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111609176</v>
+        <v>111609168</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>77597</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,42 +935,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>864</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514875.4249116365</v>
+        <v>515085.0087401169</v>
       </c>
       <c r="R4" t="n">
-        <v>6924962.732657854</v>
+        <v>6925147.4056778</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,6 +1023,11 @@
       <c r="AI4" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111609172</v>
+        <v>111609174</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>90854</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1061,21 +1061,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>2079</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>514955.9350709137</v>
+        <v>514788.8674634451</v>
       </c>
       <c r="R5" t="n">
-        <v>6925302.779521272</v>
+        <v>6925250.666874606</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>mossig silverlåga av tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111609170</v>
+        <v>111609169</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515035.9338400747</v>
+        <v>515078.8479096842</v>
       </c>
       <c r="R6" t="n">
-        <v>6925238.814452391</v>
+        <v>6925177.45879681</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111609175</v>
+        <v>111609173</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1300,38 +1300,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>514769.8196280882</v>
+        <v>514934.1293421969</v>
       </c>
       <c r="R7" t="n">
-        <v>6925156.6384242</v>
+        <v>6925308.234934391</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1388,11 +1392,6 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1410,10 +1409,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111609167</v>
+        <v>111609175</v>
       </c>
       <c r="B8" t="n">
-        <v>77186</v>
+        <v>77268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1426,21 +1425,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1450,10 +1449,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>515051.1877758073</v>
+        <v>514769.8196280882</v>
       </c>
       <c r="R8" t="n">
-        <v>6925144.938876954</v>
+        <v>6925156.6384242</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1514,7 +1513,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1532,10 +1531,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111609169</v>
+        <v>111609172</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1544,42 +1543,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Holmnäset, Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>515078.8479096842</v>
+        <v>514955.9350709137</v>
       </c>
       <c r="R9" t="n">
-        <v>6925177.45879681</v>
+        <v>6925302.779521272</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1636,6 +1631,11 @@
       <c r="AI9" t="inlineStr">
         <is>
           <t>lövrik tallnaturskog</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111609173</v>
+        <v>111609176</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1697,10 +1697,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>514934.1293421969</v>
+        <v>514875.4249116365</v>
       </c>
       <c r="R10" t="n">
-        <v>6925308.234934391</v>
+        <v>6924962.732657854</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
